--- a/作成書類/企業システム開発におけるボタン単位までの権限管理実装手法.xlsx
+++ b/作成書類/企業システム開発におけるボタン単位までの権限管理実装手法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3031208\Desktop\業務日報\作成書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDBF69-A6A3-4CEC-A614-52E471AB38C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15337C-13C0-4A09-B50F-C1ADF46ECC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E713EFE0-A734-46E6-B85E-95B299776A9F}"/>
   </bookViews>
@@ -2041,7 +2041,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>このフィルターの処理は、ユーザー認証後に ユーザーの権限をデータベースから取得し、</a:t>
+            <a:t>　このフィルターの処理は、ユーザー認証後に ユーザーの権限をデータベースから取得し、</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" b="0">
@@ -2108,16 +2108,73 @@
               <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>に紐づく全ての権限文字列を取得する。この取得処理では、ユーザー、役割、権限、ロール権限、メニューの五つのテーブルを連結して、ユーザーが持つ全ての権限情報を正確に抽出する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>に紐づく全ての権限文字列を取得する。この取得処理では、ユーザー、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" b="0">
               <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>取得した権限文字列は、</a:t>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メニュー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0">
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>、中間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0">
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>、の五つのテーブルを連結して、ユーザーが持つ全ての権限情報を正確に抽出する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0">
+              <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　取得した権限文字列は、</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" b="0">
@@ -2229,7 +2286,7 @@
               <a:latin typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="UD デジタル 教科書体 NP" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>こうすることで、システム内の各メソッドで </a:t>
+            <a:t>　こうすることで、システム内の各メソッドで </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
@@ -3150,7 +3207,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
